--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd8.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H2">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I2">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J2">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N2">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q2">
-        <v>0.5068509833620001</v>
+        <v>0.3977451567990001</v>
       </c>
       <c r="R2">
-        <v>4.561658850258</v>
+        <v>3.579706411191</v>
       </c>
       <c r="S2">
-        <v>0.1161312233535856</v>
+        <v>0.05833781786088783</v>
       </c>
       <c r="T2">
-        <v>0.1161312233535856</v>
+        <v>0.05833781786088784</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H3">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I3">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J3">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.517578</v>
       </c>
       <c r="O3">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P3">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q3">
-        <v>2.627240249600444</v>
+        <v>1.513008996474</v>
       </c>
       <c r="R3">
-        <v>23.645162246404</v>
+        <v>13.617080968266</v>
       </c>
       <c r="S3">
-        <v>0.6019611961805532</v>
+        <v>0.221915067347482</v>
       </c>
       <c r="T3">
-        <v>0.6019611961805531</v>
+        <v>0.2219150673474821</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H4">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I4">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J4">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N4">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q4">
-        <v>0.8093023380022222</v>
+        <v>0.574460570112</v>
       </c>
       <c r="R4">
-        <v>7.28372104202</v>
+        <v>5.170145131008</v>
       </c>
       <c r="S4">
-        <v>0.1854297883604766</v>
+        <v>0.08425690554515357</v>
       </c>
       <c r="T4">
-        <v>0.1854297883604765</v>
+        <v>0.08425690554515357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H5">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I5">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J5">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N5">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q5">
-        <v>0.002435619555555556</v>
+        <v>0.00633606015</v>
       </c>
       <c r="R5">
-        <v>0.021920576</v>
+        <v>0.05702454135000001</v>
       </c>
       <c r="S5">
-        <v>0.0005580564858223164</v>
+        <v>0.0009293184760842295</v>
       </c>
       <c r="T5">
-        <v>0.0005580564858223163</v>
+        <v>0.0009293184760842297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H6">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I6">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J6">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N6">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O6">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P6">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q6">
-        <v>0.053775106302</v>
+        <v>0.6906582098726668</v>
       </c>
       <c r="R6">
-        <v>0.483975956718</v>
+        <v>6.215923888854001</v>
       </c>
       <c r="S6">
-        <v>0.01232111426399291</v>
+        <v>0.1012997698725964</v>
       </c>
       <c r="T6">
-        <v>0.0123211142639929</v>
+        <v>0.1012997698725964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H7">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I7">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J7">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>34.517578</v>
       </c>
       <c r="O7">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P7">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q7">
-        <v>0.2787409482093333</v>
+        <v>2.627240249600444</v>
       </c>
       <c r="R7">
-        <v>2.508668533884</v>
+        <v>23.645162246404</v>
       </c>
       <c r="S7">
-        <v>0.06386596529727721</v>
+        <v>0.3853408659742342</v>
       </c>
       <c r="T7">
-        <v>0.0638659652972772</v>
+        <v>0.3853408659742342</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H8">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I8">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J8">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N8">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O8">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P8">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q8">
-        <v>0.08586413104666665</v>
+        <v>0.9975128602168889</v>
       </c>
       <c r="R8">
-        <v>0.7727771794199999</v>
+        <v>8.977615741952</v>
       </c>
       <c r="S8">
-        <v>0.01967344822831329</v>
+        <v>0.1463065547335721</v>
       </c>
       <c r="T8">
-        <v>0.01967344822831329</v>
+        <v>0.1463065547335722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H9">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I9">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J9">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N9">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O9">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P9">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q9">
-        <v>0.0002584106666666666</v>
+        <v>0.01100215021111111</v>
       </c>
       <c r="R9">
-        <v>0.002325696</v>
+        <v>0.09901935190000001</v>
       </c>
       <c r="S9">
-        <v>5.920782997905793E-05</v>
+        <v>0.001613700189989447</v>
       </c>
       <c r="T9">
-        <v>5.920782997905792E-05</v>
+        <v>0.001613700189989447</v>
       </c>
     </row>
   </sheetData>
